--- a/MovieDatabaseProcess/output-spreadsheets/director-gross-information.xlsx
+++ b/MovieDatabaseProcess/output-spreadsheets/director-gross-information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maggi\Documents\GitHub\rpa-solution\MovieDatabaseProcess\output-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A534ADD-8A1B-445F-8782-B7B224876F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFF07E1-25C1-437A-A589-3E0D87B31C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12915" yWindow="2550" windowWidth="11400" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13260" yWindow="2895" windowWidth="11400" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Movie</t>
   </si>
@@ -34,18 +34,6 @@
   </si>
   <si>
     <t>Worldwide Gross</t>
-  </si>
-  <si>
-    <t>James Cameron</t>
-  </si>
-  <si>
-    <t>Avatar</t>
-  </si>
-  <si>
-    <t>Steven Spielberg</t>
-  </si>
-  <si>
-    <t>West Side Story</t>
   </si>
   <si>
     <t>taika waititi</t>
@@ -369,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
@@ -400,29 +388,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2877897339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
         <v>759828739</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>76016171</v>
       </c>
     </row>
   </sheetData>

--- a/MovieDatabaseProcess/output-spreadsheets/director-gross-information.xlsx
+++ b/MovieDatabaseProcess/output-spreadsheets/director-gross-information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maggi\Documents\GitHub\rpa-solution\MovieDatabaseProcess\output-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFF07E1-25C1-437A-A589-3E0D87B31C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF0F881-D6B8-4627-A0B7-76810F6C5BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13260" yWindow="2895" windowWidth="11400" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Director</t>
+  </si>
   <si>
     <t>Movie</t>
   </si>
   <si>
-    <t>Director</t>
-  </si>
-  <si>
     <t>Worldwide Gross</t>
   </si>
   <si>
@@ -40,6 +40,24 @@
   </si>
   <si>
     <t>Thor: Love and Thunder</t>
+  </si>
+  <si>
+    <t>steven speilberg</t>
+  </si>
+  <si>
+    <t>West Side Story</t>
+  </si>
+  <si>
+    <t>james cameron</t>
+  </si>
+  <si>
+    <t>Duets</t>
+  </si>
+  <si>
+    <t>christopher nolan</t>
+  </si>
+  <si>
+    <t>Quay</t>
   </si>
 </sst>
 </file>
@@ -357,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
@@ -371,10 +389,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -389,6 +407,39 @@
       </c>
       <c r="C2">
         <v>759828739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>76016171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>6620242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>51858</v>
       </c>
     </row>
   </sheetData>

--- a/MovieDatabaseProcess/output-spreadsheets/director-gross-information.xlsx
+++ b/MovieDatabaseProcess/output-spreadsheets/director-gross-information.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maggi\Documents\GitHub\rpa-solution\MovieDatabaseProcess\output-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF0F881-D6B8-4627-A0B7-76810F6C5BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74406FDE-F75D-4271-B2C7-DB394BF6772A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="2895" windowWidth="11400" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16440" yWindow="2085" windowWidth="11400" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Director</t>
   </si>
@@ -45,19 +45,67 @@
     <t>steven speilberg</t>
   </si>
   <si>
-    <t>West Side Story</t>
-  </si>
-  <si>
     <t>james cameron</t>
   </si>
   <si>
-    <t>Duets</t>
-  </si>
-  <si>
     <t>christopher nolan</t>
   </si>
   <si>
-    <t>Quay</t>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>Titanic</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>The Dark Knight Rises</t>
+  </si>
+  <si>
+    <t>The Dark Knight</t>
+  </si>
+  <si>
+    <t>Thor: Ragnarok</t>
+  </si>
+  <si>
+    <t>Inception</t>
+  </si>
+  <si>
+    <t>E.T. the Extra-Terrestrial</t>
+  </si>
+  <si>
+    <t>Indiana Jones and the Kingdom of the Crystal Skull</t>
+  </si>
+  <si>
+    <t>Interstellar</t>
+  </si>
+  <si>
+    <t>The Lost World: Jurassic Park</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>Dunkirk</t>
+  </si>
+  <si>
+    <t>Terminator 2: Judgment Day</t>
+  </si>
+  <si>
+    <t>True Lies</t>
+  </si>
+  <si>
+    <t>Aliens</t>
+  </si>
+  <si>
+    <t>Jojo Rabbit</t>
+  </si>
+  <si>
+    <t>Boy</t>
+  </si>
+  <si>
+    <t>Hunt for the Wilderpeople</t>
   </si>
 </sst>
 </file>
@@ -375,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
@@ -400,46 +448,222 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>759828739</v>
+        <v>2920357254</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>76016171</v>
+        <v>2201647264</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>6620242</v>
+        <v>1109802321</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>51858</v>
+        <v>1081153097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1006234167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>853983879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>836848102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>792910554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>790653942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>760677374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>716218351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>618638999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>603873119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>527016307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>520881154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>378882411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>131060248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>90335025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>43551154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>23915910</v>
       </c>
     </row>
   </sheetData>

--- a/MovieDatabaseProcess/output-spreadsheets/director-gross-information.xlsx
+++ b/MovieDatabaseProcess/output-spreadsheets/director-gross-information.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maggi\Documents\GitHub\rpa-solution\MovieDatabaseProcess\output-spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blake\Documents\rpa-solution\MovieDatabaseProcess\output-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74406FDE-F75D-4271-B2C7-DB394BF6772A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FC1999-B3DE-46C0-98C4-076AE260258E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16440" yWindow="2085" windowWidth="11400" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31875" yWindow="3075" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="311">
   <si>
     <t>Director</t>
   </si>
@@ -36,21 +36,6 @@
     <t>Worldwide Gross</t>
   </si>
   <si>
-    <t>taika waititi</t>
-  </si>
-  <si>
-    <t>Thor: Love and Thunder</t>
-  </si>
-  <si>
-    <t>steven speilberg</t>
-  </si>
-  <si>
-    <t>james cameron</t>
-  </si>
-  <si>
-    <t>christopher nolan</t>
-  </si>
-  <si>
     <t>Avatar</t>
   </si>
   <si>
@@ -60,36 +45,18 @@
     <t>Jurassic Park</t>
   </si>
   <si>
-    <t>The Dark Knight Rises</t>
-  </si>
-  <si>
-    <t>The Dark Knight</t>
-  </si>
-  <si>
-    <t>Thor: Ragnarok</t>
-  </si>
-  <si>
-    <t>Inception</t>
-  </si>
-  <si>
     <t>E.T. the Extra-Terrestrial</t>
   </si>
   <si>
     <t>Indiana Jones and the Kingdom of the Crystal Skull</t>
   </si>
   <si>
-    <t>Interstellar</t>
-  </si>
-  <si>
     <t>The Lost World: Jurassic Park</t>
   </si>
   <si>
     <t>War of the Worlds</t>
   </si>
   <si>
-    <t>Dunkirk</t>
-  </si>
-  <si>
     <t>Terminator 2: Judgment Day</t>
   </si>
   <si>
@@ -99,13 +66,950 @@
     <t>Aliens</t>
   </si>
   <si>
-    <t>Jojo Rabbit</t>
-  </si>
-  <si>
-    <t>Boy</t>
-  </si>
-  <si>
-    <t>Hunt for the Wilderpeople</t>
+    <t xml:space="preserve"> James Cameron
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jon Watts
+</t>
+  </si>
+  <si>
+    <t>Spider-Man: No Way Home</t>
+  </si>
+  <si>
+    <t>Spider-Man: Far from Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Steven Spielberg
+</t>
+  </si>
+  <si>
+    <t>Spider-Man: Homecoming</t>
+  </si>
+  <si>
+    <t>Ready Player One</t>
+  </si>
+  <si>
+    <t>Saving Private Ryan</t>
+  </si>
+  <si>
+    <t>Jaws</t>
+  </si>
+  <si>
+    <t>Indiana Jones and the Last Crusade</t>
+  </si>
+  <si>
+    <t>Raiders of the Lost Ark</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin: The Secret of the Unicorn</t>
+  </si>
+  <si>
+    <t>Minority Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hayao Miyazaki
+</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>Catch Me If You Can</t>
+  </si>
+  <si>
+    <t>Indiana Jones and the Temple of Doom</t>
+  </si>
+  <si>
+    <t>Schindler's List</t>
+  </si>
+  <si>
+    <t>Close Encounters of the Third Kind</t>
+  </si>
+  <si>
+    <t>Hook</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nicholas Stoller
+</t>
+  </si>
+  <si>
+    <t>Bad Neighbours</t>
+  </si>
+  <si>
+    <t>Howl's Moving Castle</t>
+  </si>
+  <si>
+    <t>A.I. Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>The Terminal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Francis Ford Coppola
+</t>
+  </si>
+  <si>
+    <t>Bram Stoker's Dracula</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t>The BFG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mike Nichols
+</t>
+  </si>
+  <si>
+    <t>The Birdcage</t>
+  </si>
+  <si>
+    <t>Storks</t>
+  </si>
+  <si>
+    <t>The Post</t>
+  </si>
+  <si>
+    <t>War Horse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greg Mottola
+</t>
+  </si>
+  <si>
+    <t>Superbad</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>Bridge of Spies</t>
+  </si>
+  <si>
+    <t>The Godfather Part III</t>
+  </si>
+  <si>
+    <t>The Wind Rises</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Munich</t>
+  </si>
+  <si>
+    <t>Charlie Wilson's War</t>
+  </si>
+  <si>
+    <t>Closer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parker Finn
+</t>
+  </si>
+  <si>
+    <t>Smile</t>
+  </si>
+  <si>
+    <t>Bad Neighbours 2</t>
+  </si>
+  <si>
+    <t>Forgetting Sarah Marshall</t>
+  </si>
+  <si>
+    <t>The Graduate</t>
+  </si>
+  <si>
+    <t>Apocalypse Now</t>
+  </si>
+  <si>
+    <t>Working Girl</t>
+  </si>
+  <si>
+    <t>The Color Purple</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nicholas Meyer
+</t>
+  </si>
+  <si>
+    <t>Star Trek VI: The Undiscovered Country</t>
+  </si>
+  <si>
+    <t>Get Him to the Greek</t>
+  </si>
+  <si>
+    <t>The Abyss</t>
+  </si>
+  <si>
+    <t>Star Trek II: The Wrath of Khan</t>
+  </si>
+  <si>
+    <t>The Terminator</t>
+  </si>
+  <si>
+    <t>West Side Story</t>
+  </si>
+  <si>
+    <t>Always</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Olivia Wilde
+</t>
+  </si>
+  <si>
+    <t>Don't Worry Darling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gina Prince-Bythewood
+</t>
+  </si>
+  <si>
+    <t>The Woman King</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>The Five-Year Engagement</t>
+  </si>
+  <si>
+    <t>Primary Colors</t>
+  </si>
+  <si>
+    <t>Biloxi Blues</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ayan Mukerji
+</t>
+  </si>
+  <si>
+    <t>Brahmastra Part One: Shiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luan Zhang
+</t>
+  </si>
+  <si>
+    <t>Song of Youth</t>
+  </si>
+  <si>
+    <t>The Godfather: Part II</t>
+  </si>
+  <si>
+    <t>The Rainmaker</t>
+  </si>
+  <si>
+    <t>Amistad</t>
+  </si>
+  <si>
+    <t>Regarding Henry</t>
+  </si>
+  <si>
+    <t>Peggy Sue Got Married</t>
+  </si>
+  <si>
+    <t>The Secret Life of Bees</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zach Cregger
+</t>
+  </si>
+  <si>
+    <t>Barbarian</t>
+  </si>
+  <si>
+    <t>Postcards from the Edge</t>
+  </si>
+  <si>
+    <t>Silkwood</t>
+  </si>
+  <si>
+    <t>Yeh Jawaani Hai Deewani</t>
+  </si>
+  <si>
+    <t>My Neighbour Totoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nick Hamm
+</t>
+  </si>
+  <si>
+    <t>Godsend</t>
+  </si>
+  <si>
+    <t>Keeping Up with the Joneses</t>
+  </si>
+  <si>
+    <t>Twilight Zone: The Movie</t>
+  </si>
+  <si>
+    <t>Who's Afraid of Virginia Woolf?</t>
+  </si>
+  <si>
+    <t>Love &amp; Basketball</t>
+  </si>
+  <si>
+    <t>Ghosts of the Abyss</t>
+  </si>
+  <si>
+    <t>The Cotton Club</t>
+  </si>
+  <si>
+    <t>The Outsiders</t>
+  </si>
+  <si>
+    <t>Heartburn</t>
+  </si>
+  <si>
+    <t>Booksmart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mani Ratnam
+</t>
+  </si>
+  <si>
+    <t>Guru</t>
+  </si>
+  <si>
+    <t>Empire of the Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Castille Landon
+</t>
+  </si>
+  <si>
+    <t>After We Fell</t>
+  </si>
+  <si>
+    <t>Ponniyin Selvan</t>
+  </si>
+  <si>
+    <t>Volunteers</t>
+  </si>
+  <si>
+    <t>Tucker: The Man and His Dream</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tom George
+</t>
+  </si>
+  <si>
+    <t>See How They Run</t>
+  </si>
+  <si>
+    <t>After Ever Happy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marius Vaysberg
+</t>
+  </si>
+  <si>
+    <t>Love in Vegas</t>
+  </si>
+  <si>
+    <t>Adventureland</t>
+  </si>
+  <si>
+    <t>Supernova</t>
+  </si>
+  <si>
+    <t>Beyond the Lights</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ti West
+</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>What Planet Are You From?</t>
+  </si>
+  <si>
+    <t>Lyubov v bolshom gorode 2</t>
+  </si>
+  <si>
+    <t>No Love in the City</t>
+  </si>
+  <si>
+    <t>Gitler kaput!</t>
+  </si>
+  <si>
+    <t>New York Stories</t>
+  </si>
+  <si>
+    <t>Corporal vs. Napoleon</t>
+  </si>
+  <si>
+    <t>Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>Bros</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Timo Vuorensola
+</t>
+  </si>
+  <si>
+    <t>Iron Sky</t>
+  </si>
+  <si>
+    <t>Brett Morgen</t>
+  </si>
+  <si>
+    <t>Moonage Daydream</t>
+  </si>
+  <si>
+    <t>Pearl</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>8 New Dates</t>
+  </si>
+  <si>
+    <t>The Sugarland Express</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gayatri
+</t>
+  </si>
+  <si>
+    <t>Vikram Vedha</t>
+  </si>
+  <si>
+    <t>Naughty Grandma 2</t>
+  </si>
+  <si>
+    <t>The (UN)perfect Guy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atsuko Ishizuka
+</t>
+  </si>
+  <si>
+    <t>No Game No Life: Zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Raúl Martínez
+</t>
+  </si>
+  <si>
+    <t>The Patriarch</t>
+  </si>
+  <si>
+    <t>Naughty Grandma</t>
+  </si>
+  <si>
+    <t>Laputa: Castle in the Sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Petr Jákl
+</t>
+  </si>
+  <si>
+    <t>Kajínek</t>
+  </si>
+  <si>
+    <t>Gardens of Stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kevin Peeples
+</t>
+  </si>
+  <si>
+    <t>Lifemark</t>
+  </si>
+  <si>
+    <t>The Conversation</t>
+  </si>
+  <si>
+    <t>Miss March</t>
+  </si>
+  <si>
+    <t>Prababushka lyogkogo povedeniya</t>
+  </si>
+  <si>
+    <t>Clown</t>
+  </si>
+  <si>
+    <t>Wake Up Sid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Morgan Matthews
+</t>
+  </si>
+  <si>
+    <t>The Railway Children Return</t>
+  </si>
+  <si>
+    <t>Jeepers Creepers: Reborn</t>
+  </si>
+  <si>
+    <t>The 8 Best Dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mathieu Amalric
+</t>
+  </si>
+  <si>
+    <t>On Tour</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>The Waiter</t>
+  </si>
+  <si>
+    <t>Tetro</t>
+  </si>
+  <si>
+    <t>Youth Without Youth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adamma Ebo
+</t>
+  </si>
+  <si>
+    <t>Honk for Jesus. Save Your Soul.</t>
+  </si>
+  <si>
+    <t>Rumble Fish</t>
+  </si>
+  <si>
+    <t>The Day of the Dolphin</t>
+  </si>
+  <si>
+    <t>Gigi &amp; Nate</t>
+  </si>
+  <si>
+    <t>Gilda Live</t>
+  </si>
+  <si>
+    <t>The Daytrippers</t>
+  </si>
+  <si>
+    <t>Cuando Sea Joven</t>
+  </si>
+  <si>
+    <t>V/H/S</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maya Forbes
+</t>
+  </si>
+  <si>
+    <t>The Good House</t>
+  </si>
+  <si>
+    <t>Infinitely Polar Bear</t>
+  </si>
+  <si>
+    <t>Nochnaya smena</t>
+  </si>
+  <si>
+    <t>The Kid Stays in the Picture</t>
+  </si>
+  <si>
+    <t>Company Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kristina Buozyte
+</t>
+  </si>
+  <si>
+    <t>Vesper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marty Roberts
+</t>
+  </si>
+  <si>
+    <t>Running the Bases</t>
+  </si>
+  <si>
+    <t>Raavan</t>
+  </si>
+  <si>
+    <t>Porco Rosso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nabil Ayouch
+</t>
+  </si>
+  <si>
+    <t>Much Loved</t>
+  </si>
+  <si>
+    <t>The Blue Room</t>
+  </si>
+  <si>
+    <t>Ghoul</t>
+  </si>
+  <si>
+    <t>The Innkeepers</t>
+  </si>
+  <si>
+    <t>Razzia</t>
+  </si>
+  <si>
+    <t>X+Y</t>
+  </si>
+  <si>
+    <t>Raavanan</t>
+  </si>
+  <si>
+    <t>Hold Me Tight</t>
+  </si>
+  <si>
+    <t>Chekka Chivantha Vaanam</t>
+  </si>
+  <si>
+    <t>Killing Bono</t>
+  </si>
+  <si>
+    <t>Cobain: Montage of Heck</t>
+  </si>
+  <si>
+    <t>Whatever Lola Wants</t>
+  </si>
+  <si>
+    <t>Twixt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wincenty Podobinski
+</t>
+  </si>
+  <si>
+    <t>Saint Michael Meet the Angel</t>
+  </si>
+  <si>
+    <t>One from the Heart</t>
+  </si>
+  <si>
+    <t>Yuva</t>
+  </si>
+  <si>
+    <t>Confess, Fletch</t>
+  </si>
+  <si>
+    <t>About Fate</t>
+  </si>
+  <si>
+    <t>Lupin III: The Castle of Cagliostro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Julian Higgins
+</t>
+  </si>
+  <si>
+    <t>God's Country</t>
+  </si>
+  <si>
+    <t>The Journey</t>
+  </si>
+  <si>
+    <t>Patricio Guzmán</t>
+  </si>
+  <si>
+    <t>Nostalgia for the Light</t>
+  </si>
+  <si>
+    <t>Iron Sky: The Coming Race</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Josh Franer
+</t>
+  </si>
+  <si>
+    <t>Superspreader</t>
+  </si>
+  <si>
+    <t>The Deceivers</t>
+  </si>
+  <si>
+    <t>Kaatru Veliyidai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sanaa Lathan
+</t>
+  </si>
+  <si>
+    <t>On the Come Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agnieszka Smoczynska
+</t>
+  </si>
+  <si>
+    <t>The Silent Twins</t>
+  </si>
+  <si>
+    <t>Chicago 10</t>
+  </si>
+  <si>
+    <t>The Cordillera of Dreams</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tommy Haines
+</t>
+  </si>
+  <si>
+    <t>Hockeyland</t>
+  </si>
+  <si>
+    <t>Driven</t>
+  </si>
+  <si>
+    <t>Cop Car</t>
+  </si>
+  <si>
+    <t>Casablanca Beats</t>
+  </si>
+  <si>
+    <t>The Pearl Button</t>
+  </si>
+  <si>
+    <t>The Lure</t>
+  </si>
+  <si>
+    <t>The House of the Devil</t>
+  </si>
+  <si>
+    <t>Martha - Meet Frank, Daniel and Laurence</t>
+  </si>
+  <si>
+    <t>Horses of God</t>
+  </si>
+  <si>
+    <t>Goodbye, Don Glees!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michael A. Pinckney
+</t>
+  </si>
+  <si>
+    <t>Unfavorable Odds</t>
+  </si>
+  <si>
+    <t>OK Kanmani</t>
+  </si>
+  <si>
+    <t>The Pinochet Case</t>
+  </si>
+  <si>
+    <t>Mark Cousins</t>
+  </si>
+  <si>
+    <t>The Eyes of Orson Welles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aaron Schillinger
+</t>
+  </si>
+  <si>
+    <t>Boblo Boats: A Tale of Two Sisters</t>
+  </si>
+  <si>
+    <t>Give Me Five</t>
+  </si>
+  <si>
+    <t>Salvador Allende</t>
+  </si>
+  <si>
+    <t>In a Valley of Violence</t>
+  </si>
+  <si>
+    <t>Saving Brinton</t>
+  </si>
+  <si>
+    <t>On the Ropes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eva Vitija
+</t>
+  </si>
+  <si>
+    <t>Loving Highsmith</t>
+  </si>
+  <si>
+    <t>Declan McGrath</t>
+  </si>
+  <si>
+    <t>Young Plato</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>I Am Belfast</t>
+  </si>
+  <si>
+    <t>Kadal</t>
+  </si>
+  <si>
+    <t>Oram Po</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Patricio Ginelsa
+</t>
+  </si>
+  <si>
+    <t>Lumpia with a Vengeance</t>
+  </si>
+  <si>
+    <t>Carnal Knowledge</t>
+  </si>
+  <si>
+    <t>Sierra Pettengill</t>
+  </si>
+  <si>
+    <t>Riotsville, U.S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Martine Syms
+</t>
+  </si>
+  <si>
+    <t>The African Desperate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clark Richey
+</t>
+  </si>
+  <si>
+    <t>Mysterious Circumstance: The Death of Meriwether Lewis</t>
+  </si>
+  <si>
+    <t>Fear of Rain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michael Chiang
+</t>
+  </si>
+  <si>
+    <t>Wolf Pack</t>
+  </si>
+  <si>
+    <t>The ABCs of Death</t>
+  </si>
+  <si>
+    <t>The Story of Film: A New Generation</t>
+  </si>
+  <si>
+    <t>Talk of Angels</t>
+  </si>
+  <si>
+    <t>Crossfire Hurricane</t>
+  </si>
+  <si>
+    <t>Stockholm, My Love</t>
+  </si>
+  <si>
+    <t>Public Affairs</t>
+  </si>
+  <si>
+    <t>A Story of Children and Film</t>
+  </si>
+  <si>
+    <t>The Story of Film: An Odyssey</t>
+  </si>
+  <si>
+    <t>My Imaginary Country</t>
+  </si>
+  <si>
+    <t>The Story of Looking</t>
+  </si>
+  <si>
+    <t>The Sacrament</t>
+  </si>
+  <si>
+    <t>Rita Baghdadi</t>
+  </si>
+  <si>
+    <t>Sirens</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ben Parker
+</t>
+  </si>
+  <si>
+    <t>Burial</t>
+  </si>
+  <si>
+    <t>The Field Guide to Evil</t>
+  </si>
+  <si>
+    <t>ABCs of Death 2</t>
+  </si>
+  <si>
+    <t>The Reagan Show</t>
+  </si>
+  <si>
+    <t>The Roost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jean Luc Herbulot
+</t>
+  </si>
+  <si>
+    <t>Saloum</t>
+  </si>
+  <si>
+    <t>Kolekcioniere</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valerie Buhagiar
+</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andrew Arguello
+</t>
+  </si>
+  <si>
+    <t>Carp-e Diem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Giuseppe Monticciolo
+</t>
+  </si>
+  <si>
+    <t>The Modern Way</t>
+  </si>
+  <si>
+    <t>Duel</t>
+  </si>
+  <si>
+    <t>The Chamber</t>
+  </si>
+  <si>
+    <t>Fuga</t>
+  </si>
+  <si>
+    <t>The Storms of Jeremy Thomas</t>
+  </si>
+  <si>
+    <t>Le stade de Wimbledon</t>
+  </si>
+  <si>
+    <t>Vanishing Waves</t>
   </si>
 </sst>
 </file>
@@ -141,8 +1045,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,7 +1330,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
@@ -446,224 +1353,2776 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2920357254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
+        <v>2922058950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>2201647264</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>1920544470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>1131927996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6">
+        <v>1109802321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>880166924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>792910554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>790653942</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>618638999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>603873119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>582918849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>1109802321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C13">
+        <v>520881154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>482349603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>476512065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>474171806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>389925971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>1081153097</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>1006234167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>853983879</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>836848102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>792910554</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>790653942</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>760677374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C18">
+        <v>378882411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C12">
-        <v>716218351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>618638999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>603873119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>527016307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16">
-        <v>520881154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>378882411</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18">
-        <v>131060248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19">
-        <v>90335025</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3</v>
+        <v>373993951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20">
-        <v>43551154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>3</v>
+        <v>358372926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>355725195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>352114312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>333107271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>322161245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>306889114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>300854823</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27">
+        <v>270665134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C21">
-        <v>23915910</v>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28">
+        <v>237536126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>235926552</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>219100084</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>215862692</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>204826668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <v>195243411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>185260553</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>183510278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>180419276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>177584879</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38">
+        <v>170812526</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39">
+        <v>170005875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40">
+        <v>165478348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41">
+        <v>136861392</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42">
+        <v>136742301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>131060248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>131002597</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45">
+        <v>130982129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46">
+        <v>119483446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47">
+        <v>115505027</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48">
+        <v>109297899</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49">
+        <v>108007109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50">
+        <v>105833257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51">
+        <v>105015008</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52">
+        <v>104728335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53">
+        <v>102953112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54">
+        <v>98467863</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55">
+        <v>97984015</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56">
+        <v>96888996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57">
+        <v>1941</v>
+      </c>
+      <c r="C57">
+        <v>92455742</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58">
+        <v>91720255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59">
+        <v>90000098</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60">
+        <v>79818511</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61">
+        <v>78371200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62">
+        <v>76016171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63">
+        <v>74134790</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64">
+        <v>71858000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65">
+        <v>67046217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66">
+        <v>58620973</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67">
+        <v>54169363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68">
+        <v>52090187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69">
+        <v>51684798</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70">
+        <v>49958766</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71">
+        <v>49615508</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72">
+        <v>47961919</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73">
+        <v>45916769</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74">
+        <v>44229441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75">
+        <v>43001500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76">
+        <v>41488348</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77">
+        <v>39952437</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78">
+        <v>39638585</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79">
+        <v>39071603</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80">
+        <v>35615609</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81">
+        <v>30991781</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82">
+        <v>30574632</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83">
+        <v>30120671</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84">
+        <v>29918745</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85">
+        <v>29450919</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86">
+        <v>28005068</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" t="s">
+        <v>103</v>
+      </c>
+      <c r="C87">
+        <v>27743596</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C88">
+        <v>27570076</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B89" t="s">
+        <v>105</v>
+      </c>
+      <c r="C89">
+        <v>25928721</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90">
+        <v>25839182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91">
+        <v>25314189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92">
+        <v>24959607</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93">
+        <v>24108727</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94">
+        <v>22238696</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95">
+        <v>21736268</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96">
+        <v>20843701</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B97" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97">
+        <v>19875740</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B98" t="s">
+        <v>116</v>
+      </c>
+      <c r="C98">
+        <v>19656113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" t="s">
+        <v>118</v>
+      </c>
+      <c r="C99">
+        <v>18941169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" t="s">
+        <v>119</v>
+      </c>
+      <c r="C100">
+        <v>18920428</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" t="s">
+        <v>121</v>
+      </c>
+      <c r="C101">
+        <v>18717556</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B102" t="s">
+        <v>122</v>
+      </c>
+      <c r="C102">
+        <v>17164820</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B103" t="s">
+        <v>123</v>
+      </c>
+      <c r="C103">
+        <v>14828081</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B104" t="s">
+        <v>124</v>
+      </c>
+      <c r="C104">
+        <v>14618727</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B105" t="s">
+        <v>126</v>
+      </c>
+      <c r="C105">
+        <v>14476595</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B106" t="s">
+        <v>127</v>
+      </c>
+      <c r="C106">
+        <v>14145677</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B107" t="s">
+        <v>128</v>
+      </c>
+      <c r="C107">
+        <v>12923001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" t="s">
+        <v>129</v>
+      </c>
+      <c r="C108">
+        <v>11482165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" t="s">
+        <v>130</v>
+      </c>
+      <c r="C109">
+        <v>11311198</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B110" t="s">
+        <v>131</v>
+      </c>
+      <c r="C110">
+        <v>10763469</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" t="s">
+        <v>132</v>
+      </c>
+      <c r="C111">
+        <v>10365684</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" t="s">
+        <v>133</v>
+      </c>
+      <c r="C112">
+        <v>10276218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" t="s">
+        <v>134</v>
+      </c>
+      <c r="C113">
+        <v>10205735</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B114" t="s">
+        <v>136</v>
+      </c>
+      <c r="C114">
+        <v>10109659</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>137</v>
+      </c>
+      <c r="B115" t="s">
+        <v>138</v>
+      </c>
+      <c r="C115">
+        <v>10034509</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" t="s">
+        <v>139</v>
+      </c>
+      <c r="C116">
+        <v>9111532</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B117" t="s">
+        <v>140</v>
+      </c>
+      <c r="C117">
+        <v>8853968</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>141</v>
+      </c>
+      <c r="C118">
+        <v>7752894</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C119">
+        <v>7504841</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B120" t="s">
+        <v>144</v>
+      </c>
+      <c r="C120">
+        <v>7423384</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121">
+        <v>7209951</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>146</v>
+      </c>
+      <c r="C122">
+        <v>7154649</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B123" t="s">
+        <v>148</v>
+      </c>
+      <c r="C123">
+        <v>6356284</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B124" t="s">
+        <v>150</v>
+      </c>
+      <c r="C124">
+        <v>6156936</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B125" t="s">
+        <v>151</v>
+      </c>
+      <c r="C125">
+        <v>6143216</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B126" t="s">
+        <v>152</v>
+      </c>
+      <c r="C126">
+        <v>6113144</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B127" t="s">
+        <v>154</v>
+      </c>
+      <c r="C127">
+        <v>5287130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B128" t="s">
+        <v>155</v>
+      </c>
+      <c r="C128">
+        <v>5262047</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B129" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129">
+        <v>5021114</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B130" t="s">
+        <v>158</v>
+      </c>
+      <c r="C130">
+        <v>4696729</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B131" t="s">
+        <v>159</v>
+      </c>
+      <c r="C131">
+        <v>4591629</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B132" t="s">
+        <v>160</v>
+      </c>
+      <c r="C132">
+        <v>4424649</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" t="s">
+        <v>161</v>
+      </c>
+      <c r="C133">
+        <v>4381603</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B134" t="s">
+        <v>162</v>
+      </c>
+      <c r="C134">
+        <v>4278081</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B135" t="s">
+        <v>164</v>
+      </c>
+      <c r="C135">
+        <v>4206484</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>165</v>
+      </c>
+      <c r="C136">
+        <v>4101576</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B137" t="s">
+        <v>166</v>
+      </c>
+      <c r="C137">
+        <v>4085476</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B138" t="s">
+        <v>168</v>
+      </c>
+      <c r="C138">
+        <v>3482340</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B139" t="s">
+        <v>169</v>
+      </c>
+      <c r="C139">
+        <v>3456642</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B140" t="s">
+        <v>170</v>
+      </c>
+      <c r="C140">
+        <v>3265946</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B141" t="s">
+        <v>171</v>
+      </c>
+      <c r="C141">
+        <v>3098685</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B142" t="s">
+        <v>172</v>
+      </c>
+      <c r="C142">
+        <v>2874474</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B143" t="s">
+        <v>173</v>
+      </c>
+      <c r="C143">
+        <v>2624759</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B144" t="s">
+        <v>175</v>
+      </c>
+      <c r="C144">
+        <v>2561270</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B145" t="s">
+        <v>176</v>
+      </c>
+      <c r="C145">
+        <v>2494480</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B146" t="s">
+        <v>177</v>
+      </c>
+      <c r="C146">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B147" t="s">
+        <v>178</v>
+      </c>
+      <c r="C147">
+        <v>2275523</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B148" t="s">
+        <v>179</v>
+      </c>
+      <c r="C148">
+        <v>2261507</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B149" t="s">
+        <v>180</v>
+      </c>
+      <c r="C149">
+        <v>2099677</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>181</v>
+      </c>
+      <c r="C150">
+        <v>1989965</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B151" t="s">
+        <v>182</v>
+      </c>
+      <c r="C151">
+        <v>1944287</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>137</v>
+      </c>
+      <c r="B152" t="s">
+        <v>183</v>
+      </c>
+      <c r="C152">
+        <v>1921221</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B153" t="s">
+        <v>185</v>
+      </c>
+      <c r="C153">
+        <v>1846090</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B154" t="s">
+        <v>186</v>
+      </c>
+      <c r="C154">
+        <v>1824678</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B155" t="s">
+        <v>187</v>
+      </c>
+      <c r="C155">
+        <v>1819252</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>137</v>
+      </c>
+      <c r="B156" t="s">
+        <v>188</v>
+      </c>
+      <c r="C156">
+        <v>1521593</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B157" t="s">
+        <v>189</v>
+      </c>
+      <c r="C157">
+        <v>1501785</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B158" t="s">
+        <v>191</v>
+      </c>
+      <c r="C158">
+        <v>1467108</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B159" t="s">
+        <v>193</v>
+      </c>
+      <c r="C159">
+        <v>1419996</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B160" t="s">
+        <v>194</v>
+      </c>
+      <c r="C160">
+        <v>1356461</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B161" t="s">
+        <v>195</v>
+      </c>
+      <c r="C161">
+        <v>1354960</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B162" t="s">
+        <v>197</v>
+      </c>
+      <c r="C162">
+        <v>1293716</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163" t="s">
+        <v>198</v>
+      </c>
+      <c r="C163">
+        <v>1232900</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B164" t="s">
+        <v>199</v>
+      </c>
+      <c r="C164">
+        <v>1200097</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B165" t="s">
+        <v>200</v>
+      </c>
+      <c r="C165">
+        <v>1178831</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B166" t="s">
+        <v>201</v>
+      </c>
+      <c r="C166">
+        <v>1151580</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B167" t="s">
+        <v>202</v>
+      </c>
+      <c r="C167">
+        <v>1043620</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B168" t="s">
+        <v>203</v>
+      </c>
+      <c r="C168">
+        <v>1013921</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>204</v>
+      </c>
+      <c r="C169">
+        <v>903474</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B170" t="s">
+        <v>205</v>
+      </c>
+      <c r="C170">
+        <v>798098</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B171" t="s">
+        <v>206</v>
+      </c>
+      <c r="C171">
+        <v>717798</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>137</v>
+      </c>
+      <c r="B172" t="s">
+        <v>207</v>
+      </c>
+      <c r="C172">
+        <v>687649</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B173" t="s">
+        <v>208</v>
+      </c>
+      <c r="C173">
+        <v>655467</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B174" t="s">
+        <v>209</v>
+      </c>
+      <c r="C174">
+        <v>647839</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B175" t="s">
+        <v>211</v>
+      </c>
+      <c r="C175">
+        <v>643828</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B176" t="s">
+        <v>212</v>
+      </c>
+      <c r="C176">
+        <v>636796</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B177" t="s">
+        <v>213</v>
+      </c>
+      <c r="C177">
+        <v>567746</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B178" t="s">
+        <v>144</v>
+      </c>
+      <c r="C178">
+        <v>546792</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B179" t="s">
+        <v>214</v>
+      </c>
+      <c r="C179">
+        <v>538842</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B180" t="s">
+        <v>215</v>
+      </c>
+      <c r="C180">
+        <v>524102</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B181" t="s">
+        <v>216</v>
+      </c>
+      <c r="C181">
+        <v>523161</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B182" t="s">
+        <v>218</v>
+      </c>
+      <c r="C182">
+        <v>492903</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B183" t="s">
+        <v>219</v>
+      </c>
+      <c r="C183">
+        <v>482209</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>220</v>
+      </c>
+      <c r="B184" t="s">
+        <v>221</v>
+      </c>
+      <c r="C184">
+        <v>410903</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B185" t="s">
+        <v>222</v>
+      </c>
+      <c r="C185">
+        <v>400900</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B186" t="s">
+        <v>224</v>
+      </c>
+      <c r="C186">
+        <v>396000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B187" t="s">
+        <v>225</v>
+      </c>
+      <c r="C187">
+        <v>346297</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B188" t="s">
+        <v>226</v>
+      </c>
+      <c r="C188">
+        <v>262212</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B189" t="s">
+        <v>228</v>
+      </c>
+      <c r="C189">
+        <v>236153</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B190" t="s">
+        <v>230</v>
+      </c>
+      <c r="C190">
+        <v>205135</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>137</v>
+      </c>
+      <c r="B191" t="s">
+        <v>231</v>
+      </c>
+      <c r="C191">
+        <v>177490</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>220</v>
+      </c>
+      <c r="B192" t="s">
+        <v>232</v>
+      </c>
+      <c r="C192">
+        <v>166575</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B193" t="s">
+        <v>234</v>
+      </c>
+      <c r="C193">
+        <v>151292</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B194" t="s">
+        <v>235</v>
+      </c>
+      <c r="C194">
+        <v>147172</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B195" t="s">
+        <v>236</v>
+      </c>
+      <c r="C195">
+        <v>143658</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196" t="s">
+        <v>237</v>
+      </c>
+      <c r="C196">
+        <v>134744</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B197" t="s">
+        <v>238</v>
+      </c>
+      <c r="C197">
+        <v>119753</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B198" t="s">
+        <v>239</v>
+      </c>
+      <c r="C198">
+        <v>108846</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B199" t="s">
+        <v>240</v>
+      </c>
+      <c r="C199">
+        <v>101215</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B200" t="s">
+        <v>241</v>
+      </c>
+      <c r="C200">
+        <v>98378</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B201" t="s">
+        <v>242</v>
+      </c>
+      <c r="C201">
+        <v>96277</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B202" t="s">
+        <v>243</v>
+      </c>
+      <c r="C202">
+        <v>86610</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B203" t="s">
+        <v>245</v>
+      </c>
+      <c r="C203">
+        <v>86203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B204" t="s">
+        <v>246</v>
+      </c>
+      <c r="C204">
+        <v>81340</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>220</v>
+      </c>
+      <c r="B205" t="s">
+        <v>247</v>
+      </c>
+      <c r="C205">
+        <v>68934</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>248</v>
+      </c>
+      <c r="B206" t="s">
+        <v>249</v>
+      </c>
+      <c r="C206">
+        <v>68328</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B207" t="s">
+        <v>251</v>
+      </c>
+      <c r="C207">
+        <v>66581</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B208" t="s">
+        <v>252</v>
+      </c>
+      <c r="C208">
+        <v>62987</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>220</v>
+      </c>
+      <c r="B209" t="s">
+        <v>253</v>
+      </c>
+      <c r="C209">
+        <v>62044</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B210" t="s">
+        <v>254</v>
+      </c>
+      <c r="C210">
+        <v>61797</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B211" t="s">
+        <v>255</v>
+      </c>
+      <c r="C211">
+        <v>56218</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>137</v>
+      </c>
+      <c r="B212" t="s">
+        <v>256</v>
+      </c>
+      <c r="C212">
+        <v>46737</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B213" t="s">
+        <v>258</v>
+      </c>
+      <c r="C213">
+        <v>41886</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>259</v>
+      </c>
+      <c r="B214" t="s">
+        <v>260</v>
+      </c>
+      <c r="C214">
+        <v>41016</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B215" t="s">
+        <v>261</v>
+      </c>
+      <c r="C215">
+        <v>40061</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>248</v>
+      </c>
+      <c r="B216" t="s">
+        <v>262</v>
+      </c>
+      <c r="C216">
+        <v>39740</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B217" t="s">
+        <v>263</v>
+      </c>
+      <c r="C217">
+        <v>38615</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B218" t="s">
+        <v>264</v>
+      </c>
+      <c r="C218">
+        <v>37359</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B219" t="s">
+        <v>266</v>
+      </c>
+      <c r="C219">
+        <v>34413</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B220" t="s">
+        <v>267</v>
+      </c>
+      <c r="C220">
+        <v>31814</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>268</v>
+      </c>
+      <c r="B221" t="s">
+        <v>269</v>
+      </c>
+      <c r="C221">
+        <v>31362</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B222" t="s">
+        <v>271</v>
+      </c>
+      <c r="C222">
+        <v>29763</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B223" t="s">
+        <v>273</v>
+      </c>
+      <c r="C223">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B224" t="s">
+        <v>274</v>
+      </c>
+      <c r="C224">
+        <v>24565</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B225" t="s">
+        <v>276</v>
+      </c>
+      <c r="C225">
+        <v>23617</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B226" t="s">
+        <v>277</v>
+      </c>
+      <c r="C226">
+        <v>23589</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>248</v>
+      </c>
+      <c r="B227" t="s">
+        <v>278</v>
+      </c>
+      <c r="C227">
+        <v>19146</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B228" t="s">
+        <v>279</v>
+      </c>
+      <c r="C228">
+        <v>18281</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>137</v>
+      </c>
+      <c r="B229" t="s">
+        <v>280</v>
+      </c>
+      <c r="C229">
+        <v>17079</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>248</v>
+      </c>
+      <c r="B230" t="s">
+        <v>281</v>
+      </c>
+      <c r="C230">
+        <v>16241</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B231" t="s">
+        <v>282</v>
+      </c>
+      <c r="C231">
+        <v>14233</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>248</v>
+      </c>
+      <c r="B232" t="s">
+        <v>283</v>
+      </c>
+      <c r="C232">
+        <v>12943</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>248</v>
+      </c>
+      <c r="B233" t="s">
+        <v>284</v>
+      </c>
+      <c r="C233">
+        <v>12766</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>220</v>
+      </c>
+      <c r="B234" t="s">
+        <v>285</v>
+      </c>
+      <c r="C234">
+        <v>10877</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>248</v>
+      </c>
+      <c r="B235" t="s">
+        <v>286</v>
+      </c>
+      <c r="C235">
+        <v>10415</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B236" t="s">
+        <v>287</v>
+      </c>
+      <c r="C236">
+        <v>9221</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>288</v>
+      </c>
+      <c r="B237" t="s">
+        <v>289</v>
+      </c>
+      <c r="C237">
+        <v>8950</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B238" t="s">
+        <v>291</v>
+      </c>
+      <c r="C238">
+        <v>8566</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B239" t="s">
+        <v>292</v>
+      </c>
+      <c r="C239">
+        <v>7860</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B240" t="s">
+        <v>293</v>
+      </c>
+      <c r="C240">
+        <v>7171</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>268</v>
+      </c>
+      <c r="B241" t="s">
+        <v>294</v>
+      </c>
+      <c r="C241">
+        <v>7109</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B242" t="s">
+        <v>295</v>
+      </c>
+      <c r="C242">
+        <v>5642</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B243" t="s">
+        <v>297</v>
+      </c>
+      <c r="C243">
+        <v>5078</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B244" t="s">
+        <v>298</v>
+      </c>
+      <c r="C244">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B245" t="s">
+        <v>300</v>
+      </c>
+      <c r="C245">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B246" t="s">
+        <v>302</v>
+      </c>
+      <c r="C246">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B247" t="s">
+        <v>304</v>
+      </c>
+      <c r="C247">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B248" t="s">
+        <v>305</v>
+      </c>
+      <c r="C248">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B249" t="s">
+        <v>306</v>
+      </c>
+      <c r="C249">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B250" t="s">
+        <v>307</v>
+      </c>
+      <c r="C250">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>248</v>
+      </c>
+      <c r="B251" t="s">
+        <v>308</v>
+      </c>
+      <c r="C251">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B252" t="s">
+        <v>309</v>
+      </c>
+      <c r="C252">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B253" t="s">
+        <v>310</v>
+      </c>
+      <c r="C253">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
